--- a/CashFlow/SPLK_cashflow.xlsx
+++ b/CashFlow/SPLK_cashflow.xlsx
@@ -853,19 +853,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-9082000.0</v>
+        <v>91000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-9491000.0</v>
+        <v>101000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>52045000.0</v>
+        <v>118394000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>52980000.0</v>
+        <v>93956000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-17133000.0</v>
+        <v>6179000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>31815000.0</v>
